--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_6.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177854.7080031853</v>
+        <v>51093.75413392024</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>32252.22165943392</v>
       </c>
       <c r="C2" t="n">
+        <v>32252.22165943391</v>
+      </c>
+      <c r="D2" t="n">
         <v>32252.22165943392</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32252.22165943391</v>
       </c>
       <c r="E2" t="n">
         <v>32252.22165943392</v>
@@ -26328,7 +26328,7 @@
         <v>32252.22165943392</v>
       </c>
       <c r="G2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="H2" t="n">
         <v>32252.22165943392</v>
@@ -26337,7 +26337,7 @@
         <v>32252.22165943392</v>
       </c>
       <c r="J2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="K2" t="n">
         <v>32252.22165943392</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1375.378340566083</v>
+        <v>-16526.05231060085</v>
       </c>
       <c r="C6" t="n">
-        <v>-1375.378340566083</v>
+        <v>-16526.05231060085</v>
       </c>
       <c r="D6" t="n">
-        <v>-1375.378340566087</v>
+        <v>-16526.05231060084</v>
       </c>
       <c r="E6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="F6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="G6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="H6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="I6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="J6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="K6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="L6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="M6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="N6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="O6" t="n">
-        <v>32252.22165943392</v>
+        <v>17101.54768939915</v>
       </c>
       <c r="P6" t="n">
-        <v>32252.22165943391</v>
+        <v>17101.54768939915</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_6.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51093.75413392024</v>
+        <v>165178.6126162587</v>
       </c>
     </row>
     <row r="7">
@@ -26316,46 +26316,46 @@
         <v>32252.22165943392</v>
       </c>
       <c r="C2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="D2" t="n">
         <v>32252.22165943392</v>
       </c>
       <c r="E2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="F2" t="n">
         <v>32252.22165943392</v>
       </c>
       <c r="G2" t="n">
+        <v>32252.22165943391</v>
+      </c>
+      <c r="H2" t="n">
+        <v>32252.22165943391</v>
+      </c>
+      <c r="I2" t="n">
+        <v>32252.22165943391</v>
+      </c>
+      <c r="J2" t="n">
         <v>32252.22165943392</v>
       </c>
-      <c r="H2" t="n">
-        <v>32252.22165943392</v>
-      </c>
-      <c r="I2" t="n">
-        <v>32252.22165943392</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>32252.22165943391</v>
       </c>
-      <c r="K2" t="n">
-        <v>32252.22165943392</v>
-      </c>
       <c r="L2" t="n">
-        <v>32252.22165943392</v>
+        <v>32252.22165943391</v>
       </c>
       <c r="M2" t="n">
         <v>32252.22165943391</v>
       </c>
       <c r="N2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="O2" t="n">
         <v>32252.22165943392</v>
       </c>
       <c r="P2" t="n">
-        <v>32252.22165943391</v>
+        <v>32252.22165943392</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-16526.05231060085</v>
+        <v>-2890.445737569556</v>
       </c>
       <c r="C6" t="n">
-        <v>-16526.05231060085</v>
+        <v>-2890.44573756956</v>
       </c>
       <c r="D6" t="n">
-        <v>-16526.05231060084</v>
+        <v>-2890.445737569552</v>
       </c>
       <c r="E6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="F6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="G6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="H6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="I6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="J6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="K6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="L6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="M6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243043</v>
       </c>
       <c r="N6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="O6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
       <c r="P6" t="n">
-        <v>17101.54768939915</v>
+        <v>30737.15426243044</v>
       </c>
     </row>
   </sheetData>
